--- a/1_excel/sample_chart.xlsx
+++ b/1_excel/sample_chart.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NadoSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -126,6 +126,77 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'NadoSheet'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'NadoSheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
@@ -151,7 +222,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet'!B1</f>
+              <f>'NadoSheet'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -169,7 +240,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet'!$B$2:$B$11</f>
+              <f>'NadoSheet'!$B$2:$B$11</f>
             </numRef>
           </val>
         </ser>
@@ -178,7 +249,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet'!C1</f>
+              <f>'NadoSheet'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -196,7 +267,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Sheet'!$C$2:$C$11</f>
+              <f>'NadoSheet'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -284,6 +355,28 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -581,142 +674,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>55</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>67</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>77</v>
-      </c>
-      <c r="C5" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>57</v>
-      </c>
-      <c r="C6" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>75</v>
-      </c>
-      <c r="C7" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>72</v>
-      </c>
-      <c r="C8" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>53</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>55</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>84</v>
-      </c>
-      <c r="C11" t="n">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
